--- a/Birds_info.xlsx
+++ b/Birds_info.xlsx
@@ -540,9 +540,6 @@
     <t>tur2.mp3</t>
   </si>
   <si>
-    <t>co_chach3</t>
-  </si>
-  <si>
     <t>cra9.mp3</t>
   </si>
   <si>
@@ -581,12 +578,15 @@
   <si>
     <t>tina15.mp3</t>
   </si>
+  <si>
+    <t>co_chach3.mp3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -645,6 +645,13 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -669,10 +676,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -694,8 +702,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -915,7 +925,7 @@
   <dimension ref="A1:AA1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1056,7 +1066,7 @@
       <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="15" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -1270,7 +1280,7 @@
         <v>63</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -1321,7 +1331,7 @@
         <v>72</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1372,7 +1382,7 @@
         <v>37</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1423,7 +1433,7 @@
         <v>37</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1474,7 +1484,7 @@
         <v>95</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1525,7 +1535,7 @@
         <v>103</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1576,7 +1586,7 @@
         <v>37</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1627,7 +1637,7 @@
         <v>119</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1678,7 +1688,7 @@
         <v>19</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -1729,7 +1739,7 @@
         <v>135</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -1780,7 +1790,7 @@
         <v>19</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -1831,7 +1841,7 @@
         <v>135</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -1882,7 +1892,7 @@
         <v>158</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -1933,7 +1943,7 @@
         <v>167</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>

--- a/Birds_info.xlsx
+++ b/Birds_info.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="206">
   <si>
     <t>Sl no</t>
   </si>
@@ -581,6 +581,63 @@
   <si>
     <t>co_chach3.mp3</t>
   </si>
+  <si>
+    <t>Image2</t>
+  </si>
+  <si>
+    <t>https://media.istockphoto.com/id/470458487/photo/male-alexandrine-parakeet.jpg?s=612x612&amp;w=0&amp;k=20&amp;c=yVdh9ksvCFRqutZpTkm_hmUzt1w_g0RJEms9NqtxQEs=</t>
+  </si>
+  <si>
+    <t>https://i.pinimg.com/736x/69/e9/db/69e9db0057e5de6b3b8a1f81dc5b6f79.jpg</t>
+  </si>
+  <si>
+    <t>https://s3.animalia.bio/animals/photos/full/original/oZZdz930D0EXKBt9HM13.webp</t>
+  </si>
+  <si>
+    <t>https://cdn.download.ams.birds.cornell.edu/api/v1/asset/261579121/320</t>
+  </si>
+  <si>
+    <t>https://wildexpedition.com/wp-content/uploads/2023/08/Chachalaca-Colombiana-Ortalis-columbiana-01.jpg</t>
+  </si>
+  <si>
+    <t>https://media.istockphoto.com/id/1703720789/photo/bird-common-crane-grus-grus-walking-on-a-meadow-spring-time-poland-europe.jpg?s=612x612&amp;w=0&amp;k=20&amp;c=-F0RO7wjD-ZH9xf_LsY9QikZds68lcGxm05TgsZfxL4=</t>
+  </si>
+  <si>
+    <t>https://cdn.britannica.com/66/131066-050-0C58CB37/Common-tailorbird.jpg</t>
+  </si>
+  <si>
+    <t>https://images.pexels.com/photos/17555070/pexels-photo-17555070/free-photo-of-crested-serpent-eagle-in-nature.jpeg</t>
+  </si>
+  <si>
+    <t>https://as1.ftcdn.net/v2/jpg/01/57/34/84/1000_F_157348431_eRQOPZDp62wQj3NnXOPyS7y7KYa3lTeG.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.wallpaperflare.com/preview/954/890/571/home-sparrow-beautiful-sparrow-pakistani-sparrow-sparrow.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQDkxjyciUbP-aseVA2vmkJPiDrSR4s0aShNA&amp;s</t>
+  </si>
+  <si>
+    <t>https://s3.animalia.bio/animals/photos/full/original/2560px-jungle-crow-28close-up-of-the-head-area292c-tennc58dji-park2c-osaka-ii.webp</t>
+  </si>
+  <si>
+    <t>https://cdn.download.ams.birds.cornell.edu/api/v1/asset/608554623/320</t>
+  </si>
+  <si>
+    <t>https://www.shutterstock.com/image-photo/colombian-chachalaca-perched-on-tree-600w-2400448869.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.download.ams.birds.cornell.edu/api/v1/asset/171225351/320</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/9/92/Megapodius_cumingii_-North_Sulawesi%2C_Indonesia-8.jpg</t>
+  </si>
+  <si>
+    <t>https://www.shutterstock.com/image-photo/avian-sri-lanka-bird-photos-600w-2391376801.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.download.ams.birds.cornell.edu/api/v1/asset/608842317/480</t>
+  </si>
 </sst>
 </file>
 
@@ -680,7 +737,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -703,6 +760,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -924,8 +982,8 @@
   </sheetPr>
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -976,7 +1034,9 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3"/>
+      <c r="L1" s="16" t="s">
+        <v>187</v>
+      </c>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -1027,7 +1087,9 @@
       <c r="K2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -1078,7 +1140,9 @@
       <c r="K3" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -1129,7 +1193,9 @@
       <c r="K4" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1180,7 +1246,9 @@
       <c r="K5" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -1231,7 +1299,9 @@
       <c r="K6" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -1282,7 +1352,9 @@
       <c r="K7" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1333,7 +1405,9 @@
       <c r="K8" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -1384,7 +1458,9 @@
       <c r="K9" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1435,7 +1511,9 @@
       <c r="K10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -1486,7 +1564,9 @@
       <c r="K11" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -1537,7 +1617,9 @@
       <c r="K12" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -1588,7 +1670,9 @@
       <c r="K13" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -1639,7 +1723,9 @@
       <c r="K14" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -1690,7 +1776,9 @@
       <c r="K15" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -1741,7 +1829,9 @@
       <c r="K16" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -1792,7 +1882,9 @@
       <c r="K17" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -1843,7 +1935,9 @@
       <c r="K18" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -1894,7 +1988,9 @@
       <c r="K19" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -1945,7 +2041,9 @@
       <c r="K20" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>

--- a/Birds_info.xlsx
+++ b/Birds_info.xlsx
@@ -621,12 +621,6 @@
     <t>https://s3.animalia.bio/animals/photos/full/original/2560px-jungle-crow-28close-up-of-the-head-area292c-tennc58dji-park2c-osaka-ii.webp</t>
   </si>
   <si>
-    <t>https://cdn.download.ams.birds.cornell.edu/api/v1/asset/608554623/320</t>
-  </si>
-  <si>
-    <t>https://www.shutterstock.com/image-photo/colombian-chachalaca-perched-on-tree-600w-2400448869.jpg</t>
-  </si>
-  <si>
     <t>https://cdn.download.ams.birds.cornell.edu/api/v1/asset/171225351/320</t>
   </si>
   <si>
@@ -637,6 +631,12 @@
   </si>
   <si>
     <t>https://cdn.download.ams.birds.cornell.edu/api/v1/asset/608842317/480</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f8/Ortalis_motmot_-_Little_Chachalaca%3B_Presidente_Figueiredo%2C_Amazonas%2C_Brazil.jpg/330px-Ortalis_motmot_-_Little_Chachalaca%3B_Presidente_Figueiredo%2C_Amazonas%2C_Brazil.jpg</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSmJZ0OK43Hi9ZL3rZ6u3zBP5Rt1hDaCQBwug&amp;s</t>
   </si>
 </sst>
 </file>
@@ -982,8 +982,8 @@
   </sheetPr>
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L20"/>
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1777,7 +1777,7 @@
         <v>180</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -1830,7 +1830,7 @@
         <v>181</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1883,7 +1883,7 @@
         <v>182</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -1936,7 +1936,7 @@
         <v>183</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -1989,7 +1989,7 @@
         <v>184</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -2042,7 +2042,7 @@
         <v>185</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
